--- a/trunk/ProjectDocuments/FinalDoc/FileToPrint/Meeting/Nhom13/PhanCongThanhVienNhom13.xlsx
+++ b/trunk/ProjectDocuments/FinalDoc/FileToPrint/Meeting/Nhom13/PhanCongThanhVienNhom13.xlsx
@@ -199,7 +199,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,12 +222,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF006100"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -235,46 +229,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="26"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="26"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF006100"/>
+      <sz val="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="26"/>
-      <color theme="0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="26"/>
-      <color theme="0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="26"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,6 +283,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -326,43 +320,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="9" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="9" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent2" xfId="3" builtinId="34"/>
@@ -660,1361 +698,1491 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:XFD58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="4"/>
-    <col min="3" max="3" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="5.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="42.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="10" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="33">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="33">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" s="6" customFormat="1">
+      <c r="A8" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="28" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="10">
-        <v>13</v>
-      </c>
-      <c r="B9" s="10">
+      <c r="A9" s="15">
+        <v>13</v>
+      </c>
+      <c r="B9" s="15">
         <v>1</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="D9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="21">
         <v>40363</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="22">
         <v>40486</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="10" t="s">
+      <c r="H9" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="10">
-        <v>13</v>
-      </c>
-      <c r="B10" s="10">
+      <c r="A10" s="15">
+        <v>13</v>
+      </c>
+      <c r="B10" s="15">
         <v>2</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="21">
         <v>40363</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="22">
         <v>40486</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="10" t="s">
+      <c r="H10" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="10">
-        <v>13</v>
-      </c>
-      <c r="B11" s="10">
+      <c r="A11" s="15">
+        <v>13</v>
+      </c>
+      <c r="B11" s="15">
         <v>3</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="21">
         <v>40363</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="22">
         <v>40486</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="10" t="s">
+      <c r="H11" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="10">
-        <v>13</v>
-      </c>
-      <c r="B12" s="10">
+      <c r="A12" s="15">
+        <v>13</v>
+      </c>
+      <c r="B12" s="15">
         <v>4</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="21">
         <v>40363</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="22">
         <v>40486</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="10" t="s">
+      <c r="H12" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="10">
-        <v>13</v>
-      </c>
-      <c r="B13" s="10">
+      <c r="A13" s="15">
+        <v>13</v>
+      </c>
+      <c r="B13" s="15">
         <v>5</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="D13" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="21">
         <v>40363</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="22">
         <v>40486</v>
       </c>
-      <c r="H13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="H13" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="13"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="1:9" s="6" customFormat="1">
+      <c r="A16" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="28" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="10">
-        <v>13</v>
-      </c>
-      <c r="B17" s="10">
+      <c r="A17" s="15">
+        <v>13</v>
+      </c>
+      <c r="B17" s="15">
         <v>1</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="10" t="s">
+      <c r="D17" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="21">
         <v>40516</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" s="10" t="s">
+      <c r="H17" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="10">
-        <v>13</v>
-      </c>
-      <c r="B18" s="10">
+      <c r="A18" s="15">
+        <v>13</v>
+      </c>
+      <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="21">
         <v>40516</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18" s="10" t="s">
+      <c r="H18" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="10">
-        <v>13</v>
-      </c>
-      <c r="B19" s="10">
+      <c r="A19" s="15">
+        <v>13</v>
+      </c>
+      <c r="B19" s="15">
         <v>3</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="21">
         <v>40516</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" s="10" t="s">
+      <c r="H19" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="10">
-        <v>13</v>
-      </c>
-      <c r="B20" s="10">
+      <c r="A20" s="15">
+        <v>13</v>
+      </c>
+      <c r="B20" s="15">
         <v>4</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="21">
         <v>40516</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H20" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" s="10" t="s">
+      <c r="H20" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="10">
-        <v>13</v>
-      </c>
-      <c r="B21" s="10">
+      <c r="A21" s="15">
+        <v>13</v>
+      </c>
+      <c r="B21" s="15">
         <v>5</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="10" t="s">
+      <c r="D21" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="21">
         <v>40516</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="H21" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="1" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="13"/>
+    </row>
+    <row r="24" spans="1:9" s="6" customFormat="1">
+      <c r="A24" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="28" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="10">
-        <v>13</v>
-      </c>
-      <c r="B25" s="10">
+      <c r="A25" s="15">
+        <v>13</v>
+      </c>
+      <c r="B25" s="15">
         <v>1</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="10" t="s">
+      <c r="D25" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="H25" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I25" s="10" t="s">
+      <c r="H25" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="10">
-        <v>13</v>
-      </c>
-      <c r="B26" s="10">
+      <c r="A26" s="15">
+        <v>13</v>
+      </c>
+      <c r="B26" s="15">
         <v>2</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="H26" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" s="10" t="s">
+      <c r="H26" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="10">
-        <v>13</v>
-      </c>
-      <c r="B27" s="10">
+      <c r="A27" s="15">
+        <v>13</v>
+      </c>
+      <c r="B27" s="15">
         <v>3</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="G27" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="H27" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" s="10" t="s">
+      <c r="H27" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="10">
-        <v>13</v>
-      </c>
-      <c r="B28" s="10">
+      <c r="A28" s="15">
+        <v>13</v>
+      </c>
+      <c r="B28" s="15">
         <v>4</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="H28" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I28" s="10" t="s">
+      <c r="H28" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="10">
-        <v>13</v>
-      </c>
-      <c r="B29" s="10">
+      <c r="A29" s="15">
+        <v>13</v>
+      </c>
+      <c r="B29" s="15">
         <v>5</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="10" t="s">
+      <c r="D29" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="16" t="s">
+      <c r="G29" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="H29" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="H29" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="18"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="13"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="1" t="s">
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="13"/>
+    </row>
+    <row r="34" spans="1:9" s="6" customFormat="1">
+      <c r="A34" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B34" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C34" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D34" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E34" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F34" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G34" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H34" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I34" s="28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="10">
-        <v>13</v>
-      </c>
-      <c r="B33" s="10">
+    <row r="35" spans="1:9">
+      <c r="A35" s="15">
+        <v>13</v>
+      </c>
+      <c r="B35" s="15">
         <v>1</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C35" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="10" t="s">
+      <c r="D35" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F35" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G35" s="22">
         <v>40364</v>
       </c>
-      <c r="H33" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="10">
-        <v>13</v>
-      </c>
-      <c r="B34" s="10">
+      <c r="H35" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="15">
+        <v>13</v>
+      </c>
+      <c r="B36" s="15">
         <v>2</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C36" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D36" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E36" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F36" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G36" s="22">
         <v>40364</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="H36" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I34" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="10">
-        <v>13</v>
-      </c>
-      <c r="B35" s="10">
+      <c r="I36" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="15">
+        <v>13</v>
+      </c>
+      <c r="B37" s="15">
         <v>3</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C37" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D37" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E37" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F37" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G37" s="22">
         <v>40364</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="H37" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I35" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="10">
-        <v>13</v>
-      </c>
-      <c r="B36" s="10">
+      <c r="I37" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="15">
+        <v>13</v>
+      </c>
+      <c r="B38" s="15">
         <v>4</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C38" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D38" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E38" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F38" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G38" s="22">
         <v>40364</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="H38" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I36" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="10">
-        <v>13</v>
-      </c>
-      <c r="B37" s="10">
+      <c r="I38" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="15">
+        <v>13</v>
+      </c>
+      <c r="B39" s="15">
         <v>5</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C39" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="10" t="s">
+      <c r="D39" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F39" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G39" s="22">
         <v>40364</v>
       </c>
-      <c r="H37" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="13" t="s">
+      <c r="H39" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="13"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="9"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="1" t="s">
+      <c r="B41" s="11"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="13"/>
+    </row>
+    <row r="42" spans="1:9" s="6" customFormat="1">
+      <c r="A42" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B42" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C42" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D42" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E42" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F42" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G42" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H42" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I42" s="28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="10">
-        <v>13</v>
-      </c>
-      <c r="B41" s="10">
+    <row r="43" spans="1:9">
+      <c r="A43" s="15">
+        <v>13</v>
+      </c>
+      <c r="B43" s="15">
         <v>1</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C43" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="10" t="s">
+      <c r="D43" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F43" s="21">
         <v>40395</v>
       </c>
-      <c r="G41" s="16" t="s">
+      <c r="G43" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="H41" s="10" t="s">
+      <c r="H43" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I41" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="10">
-        <v>13</v>
-      </c>
-      <c r="B42" s="10">
+      <c r="I43" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="15">
+        <v>13</v>
+      </c>
+      <c r="B44" s="15">
         <v>2</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C44" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D44" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E44" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F44" s="21">
         <v>40395</v>
       </c>
-      <c r="G42" s="16" t="s">
+      <c r="G44" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="H42" s="10" t="s">
+      <c r="H44" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I42" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="10">
-        <v>13</v>
-      </c>
-      <c r="B43" s="10">
+      <c r="I44" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="15">
+        <v>13</v>
+      </c>
+      <c r="B45" s="15">
         <v>3</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C45" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D45" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E45" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F45" s="21">
         <v>40395</v>
       </c>
-      <c r="G43" s="16" t="s">
+      <c r="G45" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="H45" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I43" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="10">
-        <v>13</v>
-      </c>
-      <c r="B44" s="10">
+      <c r="I45" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="15">
+        <v>13</v>
+      </c>
+      <c r="B46" s="15">
         <v>4</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C46" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D46" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E46" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F46" s="21">
         <v>40395</v>
       </c>
-      <c r="G44" s="16" t="s">
+      <c r="G46" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="H44" s="10" t="s">
+      <c r="H46" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I44" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="10">
-        <v>13</v>
-      </c>
-      <c r="B45" s="10">
+      <c r="I46" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="15">
+        <v>13</v>
+      </c>
+      <c r="B47" s="15">
         <v>5</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C47" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E45" s="10" t="s">
+      <c r="D47" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F47" s="21">
         <v>40395</v>
       </c>
-      <c r="G45" s="16" t="s">
+      <c r="G47" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="H45" s="10" t="s">
+      <c r="H47" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I45" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="13" t="s">
+      <c r="I47" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="13"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="9"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="1" t="s">
+      <c r="B49" s="11"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="13"/>
+    </row>
+    <row r="50" spans="1:9" s="6" customFormat="1">
+      <c r="A50" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B50" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C50" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D50" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E50" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F50" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G50" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H50" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I50" s="28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="10">
-        <v>13</v>
-      </c>
-      <c r="B49" s="10">
+    <row r="51" spans="1:9">
+      <c r="A51" s="15">
+        <v>13</v>
+      </c>
+      <c r="B51" s="15">
         <v>1</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C51" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="10" t="s">
+      <c r="D51" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="F51" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G49" s="16" t="s">
+      <c r="G51" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="H49" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I49" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="10">
-        <v>13</v>
-      </c>
-      <c r="B50" s="10">
+      <c r="H51" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="15">
+        <v>13</v>
+      </c>
+      <c r="B52" s="15">
         <v>2</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C52" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D52" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="E52" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="F52" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G50" s="16" t="s">
+      <c r="G52" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="H50" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I50" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="10">
-        <v>13</v>
-      </c>
-      <c r="B51" s="10">
+      <c r="H52" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="15">
+        <v>13</v>
+      </c>
+      <c r="B53" s="15">
         <v>3</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C53" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D53" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E53" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F51" s="12" t="s">
+      <c r="F53" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G51" s="16" t="s">
+      <c r="G53" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="H51" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I51" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="10">
-        <v>13</v>
-      </c>
-      <c r="B52" s="10">
+      <c r="H53" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I53" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="15">
+        <v>13</v>
+      </c>
+      <c r="B54" s="15">
         <v>4</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C54" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D54" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="E54" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F52" s="12" t="s">
+      <c r="F54" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G52" s="16" t="s">
+      <c r="G54" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="H52" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I52" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="10">
-        <v>13</v>
-      </c>
-      <c r="B53" s="10">
+      <c r="H54" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I54" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="15">
+        <v>13</v>
+      </c>
+      <c r="B55" s="15">
         <v>5</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C55" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E53" s="10" t="s">
+      <c r="D55" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F53" s="12" t="s">
+      <c r="F55" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G53" s="16" t="s">
+      <c r="G55" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="H53" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I53" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="13" t="s">
+      <c r="H55" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="13"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="9"/>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="1" t="s">
+      <c r="B57" s="11"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="13"/>
+    </row>
+    <row r="58" spans="1:9" s="6" customFormat="1">
+      <c r="A58" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B58" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C58" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D58" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E58" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="F58" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G58" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H58" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I58" s="28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="10">
-        <v>13</v>
-      </c>
-      <c r="B57" s="10">
+    <row r="59" spans="1:9">
+      <c r="A59" s="15">
+        <v>13</v>
+      </c>
+      <c r="B59" s="15">
         <v>1</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C59" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D57" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" s="10" t="s">
+      <c r="D59" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F57" s="12" t="s">
+      <c r="F59" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="G57" s="12" t="s">
+      <c r="G59" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="H57" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I57" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="10">
-        <v>13</v>
-      </c>
-      <c r="B58" s="10">
+      <c r="H59" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I59" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="15">
+        <v>13</v>
+      </c>
+      <c r="B60" s="15">
         <v>2</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C60" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D60" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="E60" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F58" s="12" t="s">
+      <c r="F60" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="G58" s="12" t="s">
+      <c r="G60" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="H58" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I58" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="10">
-        <v>13</v>
-      </c>
-      <c r="B59" s="10">
+      <c r="H60" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I60" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="15">
+        <v>13</v>
+      </c>
+      <c r="B61" s="15">
         <v>3</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C61" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D61" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="E61" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F59" s="12" t="s">
+      <c r="F61" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="G59" s="12" t="s">
+      <c r="G61" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="H59" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I59" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="10">
-        <v>13</v>
-      </c>
-      <c r="B60" s="10">
+      <c r="H61" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I61" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="15">
+        <v>13</v>
+      </c>
+      <c r="B62" s="15">
         <v>4</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C62" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D62" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="E62" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F60" s="12" t="s">
+      <c r="F62" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="G60" s="12" t="s">
+      <c r="G62" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="H60" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I60" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="10">
-        <v>13</v>
-      </c>
-      <c r="B61" s="10">
+      <c r="H62" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I62" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="15">
+        <v>13</v>
+      </c>
+      <c r="B63" s="15">
         <v>5</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C63" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D61" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E61" s="10" t="s">
+      <c r="D63" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F61" s="12" t="s">
+      <c r="F63" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="G61" s="12" t="s">
+      <c r="G63" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="H61" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I61" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="C63" s="4"/>
-      <c r="F63" s="4"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="C64" s="4"/>
-      <c r="F64" s="4"/>
+      <c r="H63" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I63" s="15" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="65" spans="3:6">
-      <c r="C65" s="4"/>
-      <c r="F65" s="4"/>
+      <c r="C65" s="8"/>
+      <c r="F65" s="8"/>
     </row>
     <row r="66" spans="3:6">
-      <c r="C66" s="4"/>
-      <c r="F66" s="4"/>
+      <c r="C66" s="8"/>
+      <c r="F66" s="8"/>
     </row>
     <row r="67" spans="3:6">
-      <c r="C67" s="4"/>
-      <c r="F67" s="4"/>
+      <c r="C67" s="8"/>
+      <c r="F67" s="8"/>
     </row>
     <row r="68" spans="3:6">
-      <c r="C68" s="4"/>
-      <c r="F68" s="4"/>
+      <c r="C68" s="8"/>
+      <c r="F68" s="8"/>
     </row>
     <row r="69" spans="3:6">
-      <c r="C69" s="4"/>
-      <c r="F69" s="4"/>
+      <c r="C69" s="8"/>
+      <c r="F69" s="8"/>
+    </row>
+    <row r="70" spans="3:6">
+      <c r="C70" s="8"/>
+      <c r="F70" s="8"/>
+    </row>
+    <row r="71" spans="3:6">
+      <c r="C71" s="8"/>
+      <c r="F71" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/trunk/ProjectDocuments/FinalDoc/FileToPrint/Meeting/Nhom13/PhanCongThanhVienNhom13.xlsx
+++ b/trunk/ProjectDocuments/FinalDoc/FileToPrint/Meeting/Nhom13/PhanCongThanhVienNhom13.xlsx
@@ -700,7 +700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A58" sqref="A58:XFD58"/>
     </sheetView>
   </sheetViews>
